--- a/results.xlsx
+++ b/results.xlsx
@@ -397,58 +397,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="str">
+        <v>No</v>
       </c>
       <c r="B1" t="str">
-        <v>the subtle art of not giving a fck</v>
-      </c>
-      <c r="C1">
-        <v>9780062641540</v>
+        <v>BookTitle</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ISBN</v>
       </c>
       <c r="D1" t="str">
-        <v>Yes</v>
+        <v>Found</v>
       </c>
       <c r="E1" t="str">
-        <v>https://www.snapdeal.com/product/the-subtle-art-of-not/673256894166#bcrumbSearch:9780062641540%20The%20Subtle%20Art%20of%20Not%20Giving%20a%20F</v>
-      </c>
-      <c r="F1">
-        <v>184</v>
+        <v>URL</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Price</v>
       </c>
       <c r="G1" t="str">
-        <v/>
+        <v>Author</v>
       </c>
       <c r="H1" t="str">
-        <v/>
+        <v>Publisher</v>
       </c>
       <c r="I1" t="str">
-        <v>Yes</v>
+        <v>InStock</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>rich dad poor dad</v>
+        <v>the subtle art of not giving a fck</v>
       </c>
       <c r="C2">
-        <v>9781612680019</v>
+        <v>9780062641540</v>
       </c>
       <c r="D2" t="str">
         <v>Yes</v>
       </c>
       <c r="E2" t="str">
-        <v>https://www.snapdeal.com/product/rich-dad-poor-dad-hindi/662489037879#bcrumbSearch:9781612680019%20Rich%20Dad%20Poor%20Dad</v>
+        <v>https://www.snapdeal.com/product/the-subtle-art-of-not/673256894166#bcrumbSearch:9780062641540%20The%20Subtle%20Art%20of%20Not%20Giving%20a%20F</v>
       </c>
       <c r="F2">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -462,22 +462,22 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>IKIGAI</v>
+        <v>rich dad poor dad</v>
       </c>
       <c r="C3">
-        <v>9781786330895</v>
+        <v>9781612680019</v>
       </c>
       <c r="D3" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
+        <v>https://www.snapdeal.com/product/rich-dad-poor-dad-hindi/662489037879#bcrumbSearch:9781612680019%20Rich%20Dad%20Poor%20Dad</v>
+      </c>
+      <c r="F3">
+        <v>165</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -486,27 +486,27 @@
         <v/>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>atomic habits</v>
+        <v>IKIGAI</v>
       </c>
       <c r="C4">
-        <v>9781847941831</v>
+        <v>9781786330895</v>
       </c>
       <c r="D4" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="E4" t="str">
-        <v>https://www.snapdeal.com/product/atomic-habits/650095877353#bcrumbSearch:9781847941831%20Atomic%20Habits</v>
-      </c>
-      <c r="F4">
-        <v>176</v>
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -515,27 +515,27 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>ubhijljlkjlkjljl</v>
+        <v>atomic habits</v>
       </c>
       <c r="C5">
-        <v>-789839229</v>
+        <v>9781847941831</v>
       </c>
       <c r="D5" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <v/>
+        <v>https://www.snapdeal.com/product/atomic-habits/650095877353#bcrumbSearch:9781847941831%20Atomic%20Habits</v>
+      </c>
+      <c r="F5">
+        <v>176</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -544,41 +544,70 @@
         <v/>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>ubhijljlkjlkjljl</v>
+      </c>
+      <c r="C6">
+        <v>-789839229</v>
+      </c>
+      <c r="D6" t="str">
+        <v>No</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B7" t="str">
         <v>zero to one: notes on start ups, or how to build the futurepaperback 2022 hindi edition by peter thiel, blake masters and rachna bhola</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>9780753555194</v>
       </c>
-      <c r="D6" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="E6" t="str">
+      <c r="D7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E7" t="str">
         <v>https://www.snapdeal.com/product/zero-to-one-notes-on/654595686614#bcrumbSearch:9780753555194%20Zero%20to%20One</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>176</v>
       </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
         <v>Yes</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -451,7 +451,7 @@
         <v>184</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>by Mark Manson</v>
       </c>
       <c r="H2" t="str">
         <v/>
@@ -494,28 +494,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>IKIGAI</v>
+        <v>ikigai</v>
       </c>
       <c r="C4">
         <v>9781786330895</v>
       </c>
       <c r="D4" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
+        <v>https://www.snapdeal.com/product/ikigai-english-hardcover-garcia-hector/668184776843#bcrumbSearch:9781786330895%20IKIGAI</v>
+      </c>
+      <c r="F4">
+        <v>170</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>by Garcia Hector</v>
       </c>
       <c r="H4" t="str">
         <v/>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>Yes</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>176</v>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>by Peter Thiel, Blake Masters and Rachna Bhola</v>
       </c>
       <c r="H7" t="str">
         <v/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -494,28 +494,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>ikigai</v>
+        <v>IKIGAI</v>
       </c>
       <c r="C4">
         <v>9781786330895</v>
       </c>
       <c r="D4" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="E4" t="str">
-        <v>https://www.snapdeal.com/product/ikigai-english-hardcover-garcia-hector/668184776843#bcrumbSearch:9781786330895%20IKIGAI</v>
-      </c>
-      <c r="F4">
-        <v>170</v>
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>by Garcia Hector</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
     <row r="5">
